--- a/medicine/Handicap/Pages_romandes/Pages_romandes.xlsx
+++ b/medicine/Handicap/Pages_romandes/Pages_romandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pages romandes est une revue d’échanges sur le handicap mental. Son but est de favoriser l’information et la formation continue des personnes intéressées par toutes les questions touchant le handicap mental et la pédagogie spécialisée[1].
+Pages romandes est une revue d’échanges sur le handicap mental. Son but est de favoriser l’information et la formation continue des personnes intéressées par toutes les questions touchant le handicap mental et la pédagogie spécialisée.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La revue a été créée dans les années soixante, par l’ASA-Suisse, association d’aide aux personnes avec un handicap mental. Depuis 1997, elle est éditée par une fondation qui porte son nom et dont le siège est à Etoy, Institution de l’Espérance. Durant ses 50 ans d’existence, Pages romandes a étoffé son expérience. Aujourd’hui, son projet est d’être un relais de la recherche dans le domaine du handicap, un lieu d’échanges et de diffusion d’expériences, ainsi qu’un espace de réflexion sur ce qui est vécu par les personnes handicapées mentales et leur entourage.
 </t>
@@ -543,7 +557,9 @@
           <t>Carte d’identité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nombre de pages: 24 (4500 signes par page, y compris les espaces)
 Parution: 4 × l’an : mars, juin, septembre, décembre
@@ -577,7 +593,9 @@
           <t>Conseil de fondation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cédric Blanc, président et responsable de publication
 Cendrine Jéquier
@@ -612,7 +630,9 @@
           <t>Comité de rédaction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Marie-Paule Zufferey, directrice et rédactrice
 Marie-Christine Ukelo Mbolo Merga
